--- a/DocumentacaoConceptual.xlsx
+++ b/DocumentacaoConceptual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joao\UMINHO\UC\BD\TP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D3749D-6FE5-49E7-9F03-08277087FBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3326BE5-CDA9-4D48-BE0F-0D17AAC92D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{A4E7098B-C255-F54F-B680-DE33C6458887}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="140">
   <si>
     <t>Processo de Desenvolvimento do Sistema de Bases de Dados</t>
   </si>
@@ -244,9 +244,6 @@
     <t>pratica</t>
   </si>
   <si>
-    <t>Equipe</t>
-  </si>
-  <si>
     <t>constitui</t>
   </si>
   <si>
@@ -298,13 +295,169 @@
     <t>VARCHAR(20)</t>
   </si>
   <si>
-    <t>obteve</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>DATETIME</t>
+  </si>
+  <si>
+    <t>cada atletla compoem apenas 1 equipa e (consequentemente) 1 delegação.</t>
+  </si>
+  <si>
+    <t>Pode haver diferentes competições no BD.</t>
+  </si>
+  <si>
+    <t>Composta por vários atletas; cada equipa treina para um esporte; porém, pode haver mais de uma modalidade;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Várias equipas compoêm uma delegação; cada equipa só pode estar associada a uma delegação. </t>
+  </si>
+  <si>
+    <t>Composta por, pelo menos, 1 equipa; cada delegação representa um país que participará na competição;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Várias delegações compõem a competição. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Um esporte possui nome; Os esportes podem ser individuais ou não; </t>
+  </si>
+  <si>
+    <t>Diferentes esportes são realizados durante a competição.</t>
+  </si>
+  <si>
+    <t>Pessoa que competirá nos diversos eventos; cada atleta compete em 1 ou mais modalidades de um determinado esporte; informações como nome, e descrição física (altura, peso, género, etc)</t>
+  </si>
+  <si>
+    <t>Uma competição desportiva; possui um nome, local e  datas (início e fim); Com diferentes esportes/modalidades; Compsta por diferentes delegações e equipas.</t>
+  </si>
+  <si>
+    <t>Cada esporte pode ter diferentes modalidades (categorias de peso, divisão de género, individual ou em equipe, etc); possui uma descrição;</t>
+  </si>
+  <si>
+    <t>Eventos são os momentos em que os atletas disputam; ocorrem num determinado dia e hora e local (previamente definidos);</t>
+  </si>
+  <si>
+    <t>Cada atleta possui um resultado no evento em que ele participou; possui posição e se ele se classificou ou não; pode possuir outros dados como tempo ou pontos;</t>
+  </si>
+  <si>
+    <t>São as pessoas que trabalham para a competição; eles possuem nome e tipo(função que eles excercem)</t>
+  </si>
+  <si>
+    <t>Descreve os diferentes tipos de trabalhos que os funcionários podem realizar;</t>
+  </si>
+  <si>
+    <t>Pessoa responsável por treinar os atletas; cada treinador faz parte de apenas uma equipa (consequentemente, apenas uma delegação); possui um nome;</t>
+  </si>
+  <si>
+    <t>Existem diferentes modalidades para cada um dos múltiplos esportes.</t>
+  </si>
+  <si>
+    <t>Acontece muitos eventos; cada evento refere-se a uma modalidade de um esporte.</t>
+  </si>
+  <si>
+    <t>Existe apenas um resultado para cada atleta em cada evento; logo existem múltiplos resultados por atletas/eventos.</t>
+  </si>
+  <si>
+    <t>A competição é organizada/realizada por inúmeros funcionários.</t>
+  </si>
+  <si>
+    <t>Há diferentes cargos, mas cada funcionário só possui um cargo (tipo),</t>
+  </si>
+  <si>
+    <t>Existe pelo menos um treinador por equipa; logo há multiplos treinadores por delegação;</t>
+  </si>
+  <si>
+    <t>nome da competição</t>
+  </si>
+  <si>
+    <t>data do começo da competição</t>
+  </si>
+  <si>
+    <t>data do encerramento da comp.</t>
+  </si>
+  <si>
+    <t>nº de identificação da comp.</t>
+  </si>
+  <si>
+    <t>local onde se realizará a comp.</t>
+  </si>
+  <si>
+    <t>nº de identificação do atleta</t>
+  </si>
+  <si>
+    <t>nº de identificação do esporte</t>
+  </si>
+  <si>
+    <t>nome do atleta</t>
+  </si>
+  <si>
+    <t>idade do atleta</t>
+  </si>
+  <si>
+    <t>género do atleta (Masc / Fem)</t>
+  </si>
+  <si>
+    <t>peso do atleta em Kg</t>
+  </si>
+  <si>
+    <t>altura do atleta em cm</t>
+  </si>
+  <si>
+    <t>nº de identificação da equipa</t>
+  </si>
+  <si>
+    <t>nº de identificação da delegação</t>
+  </si>
+  <si>
+    <t>país de origem da delegação</t>
+  </si>
+  <si>
+    <t>nº de identificação do evento</t>
+  </si>
+  <si>
+    <t>nome do esporte</t>
+  </si>
+  <si>
+    <t>descrição da modalidade</t>
+  </si>
+  <si>
+    <t>nº de id da modalidade</t>
+  </si>
+  <si>
+    <t>data e hora da realização do evento</t>
+  </si>
+  <si>
+    <t>local onde se realizará o evento</t>
+  </si>
+  <si>
+    <t>id do resultado</t>
+  </si>
+  <si>
+    <t>posição final do atleta</t>
+  </si>
+  <si>
+    <t>pontos marcados pelo atleta no evento</t>
+  </si>
+  <si>
+    <t>tempo marcado pelo atleta</t>
+  </si>
+  <si>
+    <t>diz se o atleta se classificou ou não</t>
+  </si>
+  <si>
+    <t>nº de identificação do funcionário</t>
+  </si>
+  <si>
+    <t>nº de identificação do tipo</t>
+  </si>
+  <si>
+    <t>nome do funcionário</t>
+  </si>
+  <si>
+    <t>descricao do tipo</t>
+  </si>
+  <si>
+    <t>nº de identificação do treinador</t>
+  </si>
+  <si>
+    <t>nome do treinador</t>
   </si>
 </sst>
 </file>
@@ -793,14 +946,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20701256-2A86-8E40-B739-736B3D4B2EA8}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="52.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="2" max="3" width="57.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.7">
@@ -860,82 +1012,126 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="B10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="B11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="B12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="B14" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+      <c r="B15" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+      <c r="B16" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="48" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="B17" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="B18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="B19" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="48" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -944,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F020A1-BB68-A24B-8F9E-7C6CD7CEE018}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -1098,7 +1294,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>25</v>
@@ -1115,10 +1311,10 @@
         <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1126,13 +1322,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>60</v>
@@ -1143,7 +1339,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>61</v>
@@ -1183,7 +1379,7 @@
         <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>25</v>
@@ -1200,10 +1396,10 @@
         <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1213,34 +1409,17 @@
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="9">
-        <v>1</v>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1252,15 +1431,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930B16E8-A752-E647-BA31-D9B619F84EC0}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
     <col min="2" max="2" width="12.58203125" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -1343,8 +1522,11 @@
       <c r="B10" t="s">
         <v>44</v>
       </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>37</v>
@@ -1363,8 +1545,11 @@
       <c r="B11" t="s">
         <v>33</v>
       </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>37</v>
@@ -1383,8 +1568,11 @@
       <c r="B12" t="s">
         <v>34</v>
       </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>37</v>
@@ -1403,8 +1591,11 @@
       <c r="B13" t="s">
         <v>35</v>
       </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>37</v>
@@ -1423,9 +1614,11 @@
       <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="D14" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>37</v>
@@ -1444,8 +1637,11 @@
       <c r="B15" t="s">
         <v>45</v>
       </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>37</v>
@@ -1464,8 +1660,11 @@
       <c r="B16" t="s">
         <v>33</v>
       </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>37</v>
@@ -1484,8 +1683,11 @@
       <c r="B17" t="s">
         <v>40</v>
       </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>37</v>
@@ -1504,8 +1706,11 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>37</v>
@@ -1524,8 +1729,11 @@
       <c r="B19" t="s">
         <v>41</v>
       </c>
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>38</v>
@@ -1544,8 +1752,11 @@
       <c r="B20" t="s">
         <v>42</v>
       </c>
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>38</v>
@@ -1564,8 +1775,11 @@
       <c r="B21" t="s">
         <v>46</v>
       </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>37</v>
@@ -1584,8 +1798,11 @@
       <c r="B22" t="s">
         <v>51</v>
       </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>37</v>
@@ -1602,10 +1819,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>37</v>
@@ -1624,8 +1844,11 @@
       <c r="B24" t="s">
         <v>47</v>
       </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>37</v>
@@ -1644,8 +1867,11 @@
       <c r="B25" t="s">
         <v>33</v>
       </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>37</v>
@@ -1664,8 +1890,11 @@
       <c r="B26" t="s">
         <v>48</v>
       </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>37</v>
@@ -1684,8 +1913,11 @@
       <c r="B27" t="s">
         <v>53</v>
       </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>37</v>
@@ -1704,8 +1936,11 @@
       <c r="B28" t="s">
         <v>49</v>
       </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>37</v>
@@ -1724,8 +1959,11 @@
       <c r="B29" t="s">
         <v>54</v>
       </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
       <c r="D29" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>37</v>
@@ -1744,8 +1982,11 @@
       <c r="B30" t="s">
         <v>36</v>
       </c>
+      <c r="C30" t="s">
+        <v>128</v>
+      </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>37</v>
@@ -1764,8 +2005,11 @@
       <c r="B31" t="s">
         <v>50</v>
       </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>37</v>
@@ -1784,8 +2028,11 @@
       <c r="B32" t="s">
         <v>55</v>
       </c>
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>37</v>
@@ -1802,10 +2049,13 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>38</v>
@@ -1822,10 +2072,13 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
         <v>82</v>
-      </c>
-      <c r="D34" t="s">
-        <v>83</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>38</v>
@@ -1844,8 +2097,11 @@
       <c r="B35" t="s">
         <v>56</v>
       </c>
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>37</v>
@@ -1864,8 +2120,11 @@
       <c r="B36" t="s">
         <v>57</v>
       </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>37</v>
@@ -1884,8 +2143,11 @@
       <c r="B37" t="s">
         <v>33</v>
       </c>
+      <c r="C37" t="s">
+        <v>136</v>
+      </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>37</v>
@@ -1904,8 +2166,11 @@
       <c r="B38" t="s">
         <v>52</v>
       </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>37</v>
@@ -1924,8 +2189,11 @@
       <c r="B39" t="s">
         <v>53</v>
       </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>37</v>
@@ -1944,8 +2212,11 @@
       <c r="B40" t="s">
         <v>59</v>
       </c>
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>37</v>
@@ -1964,8 +2235,11 @@
       <c r="B41" t="s">
         <v>33</v>
       </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>37</v>
